--- a/resources/nodejs.xlsx
+++ b/resources/nodejs.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{02491A64-1BFC-F648-88E2-E1FB0BBEFFE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{04D10D9B-A681-6348-A9D3-CBB533BF162C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="anki2" sheetId="1" r:id="rId1"/>
-    <sheet name="anki" sheetId="2" r:id="rId2"/>
+    <sheet name="anki" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="251" uniqueCount="66">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="218" uniqueCount="102">
   <si>
     <t>B</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -184,14 +183,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>newListener 事件，传递的是什么参数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>newListener  事件的触发时机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>添加事件之前</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -288,7 +279,159 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>注释</t>
+    <t>有哪几种 stream 类别</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Readable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCD</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duplex 双工流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大部分 stream 的都是基于 string buffer Uint8Array  进行操作</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以实现 stream 基于 object 进行操作</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 stream 创建时的 highWaterMark 决定了 data 的总数，普通流 highWaterMark 是字节数，对于 object 的流，highWaterMark 是 objects 的总数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>当buffer 未达到 highWaterMark的限制时，write() 返回 true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>达到限制时，返回 false</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream 的设计目的是，为了限制数据的缓存数量，防止占用过多内存</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEmitter newListener 事件，传递的是什么参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventEmitter newListener  事件的触发时机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writable 和 Readable 会在内部的 buffer 中保存数据，可以通过 Writable.writableBuffer 或者 Readable.readableBuffer 取出数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用 stream.push(chunk) 时，数据存储在 Readable 流的 buffer 中。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Writable.write() 与 highWaterMark 的关系</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream.Writable close 事件，当流或者底层数据源被关闭时，发出 close 事件，之后不会有其它事件或计算发生了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream.Writable error 事件，error 发出时，不会关闭 stream，但之后除了 close 事件，其它事件都不会发出了</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream.Writable finish  事件，stream.end() 方法调用后，触发 finish 事件，所有的数据都会刷新</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream.Writable pipe 事件，stream.pipe() 方法调用时，触发 pipe 事件，传递参数 src 也就是 readable 流</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.cork() 强迫所有的写入数据都缓存在内存。避免大量小数据存入 buffer 时，产生性能影响。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.destroy() 立刻摧毁一个 stream，之后对 writable 的 write() end() 调用都会报错。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.destroyed  调用 destroy() 后，is true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.end([chunk[, encoding]][, callback]) 表明没有更多的数据被写入到 Writable</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.setDefaultEncoding(encoding) 配置默认的编码方式</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.uncork() 刷新所有调用 cork() 之后的数据，uncork 与 cork 需要调用相同的次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.writable 当可以调用write() 时，为 true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.writableEnded 当 end() 调用后，为 true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.writableCorked  返回需要调用 writable.uncork() 的次数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.writableFinished 当 finish 事件触发时，设置为 true</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.writableHighWaterMark 构建 Writable 时，highWaterMark 的值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wirtable.writableLength 返回队列中准备写入的数据 byte 数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.writableObjectMode 查看 stream 是不是 objectMode stream</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>stream.Writable drain  事件，当可以继续写入数据时，触发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>writable.write(chunk[, encoding][, callback]) 当 write() 返回 false 时，会暂停继续写入数据，直到 drain 事件触发</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在终止系统写，不停写入不读取数据的可写流，会导致内存的高占用和垃圾回收性能下降</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>object mode 的 stream 会无视掉 encoding 参数</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1253,600 +1396,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="77.83203125" customWidth="1"/>
+    <col min="2" max="2" width="85.1640625" customWidth="1"/>
     <col min="3" max="3" width="48.5" customWidth="1"/>
     <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>10</v>
-      </c>
-      <c r="E19">
-        <v>50</v>
-      </c>
-      <c r="F19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3404FCD-89FF-7B41-8CB0-FF3F758173D4}">
-  <dimension ref="A1:G35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="77.83203125" customWidth="1"/>
-    <col min="3" max="3" width="48.5" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="6" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1866,10 +1428,10 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1885,7 +1447,7 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1902,7 +1464,7 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1919,7 +1481,7 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1936,7 +1498,7 @@
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1956,7 +1518,7 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1976,7 +1538,7 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1993,7 +1555,7 @@
       <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2010,7 +1572,7 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2027,7 +1589,7 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2047,7 +1609,7 @@
       <c r="E11" t="s">
         <v>30</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2061,7 +1623,7 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2075,7 +1637,7 @@
       <c r="C13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2092,7 +1654,7 @@
       <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2109,7 +1671,7 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2118,59 +1680,60 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E17" s="2"/>
-      <c r="F17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="2"/>
+      <c r="G17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -2181,237 +1744,658 @@
       <c r="E19">
         <v>50</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
-      <c r="F32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
       </c>
-      <c r="F33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/nodejs.xlsx
+++ b/resources/nodejs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaochengyi/Documents/Study/studyByCode/anki卡包/buildAnki/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{04D10D9B-A681-6348-A9D3-CBB533BF162C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{85DA4266-5138-734B-8904-D0B1C212F6E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="218" uniqueCount="102">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="221" uniqueCount="104">
   <si>
     <t>B</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -432,6 +432,14 @@
   </si>
   <si>
     <t>object mode 的 stream 会无视掉 encoding 参数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊的 Duplex 流，继承自 Duplex，其内部能够变更正在传输的数据</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transform流是什么 转换流</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1031,15 +1039,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1396,22 +1407,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="85.1640625" customWidth="1"/>
-    <col min="3" max="3" width="48.5" customWidth="1"/>
-    <col min="4" max="4" width="40.6640625" customWidth="1"/>
-    <col min="5" max="6" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="85.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="48.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.6640625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="25.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1434,963 +1446,977 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="17">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="34">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+      <c r="G3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
+      <c r="G4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
+    <row r="6" spans="1:7" ht="17">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
+      <c r="G6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
+    <row r="8" spans="1:7" ht="17">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
+      <c r="G8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
+      <c r="G9" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
+    <row r="11" spans="1:7" ht="17">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:7" ht="17">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
+      <c r="G14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
+    <row r="16" spans="1:7" ht="17">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
+      <c r="G18" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>10</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20">
+    <row r="20" spans="1:7" ht="34">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="G20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21">
+      <c r="C20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="G20" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="17">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22">
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23">
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25">
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26">
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27">
+      <c r="C26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
+      <c r="C27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
+      <c r="C29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
+      <c r="C30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="34">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
+      <c r="C31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="34">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33">
+      <c r="C32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="17">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34">
+      <c r="C33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="17">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35">
+      <c r="C34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="34">
+      <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C35" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36">
+      <c r="C35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="17">
+      <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
-      <c r="A37">
+    <row r="37" spans="1:15" ht="17">
+      <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s">
-        <v>1</v>
-      </c>
-      <c r="O37" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38">
+      <c r="C37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="17">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39">
+      <c r="C38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="34">
+      <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C39" t="s">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40">
+      <c r="C39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="34">
+      <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41">
+      <c r="C40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="17">
+      <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42">
+      <c r="C41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="34">
+      <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
-      <c r="A43">
+    <row r="43" spans="1:15" ht="17">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44">
+      <c r="C43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="34">
+      <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45">
+      <c r="C44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="17">
+      <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C45" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46">
+      <c r="C45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="34">
+      <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47">
+      <c r="C46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="17">
+      <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48">
+      <c r="C47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="34">
+      <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
+      <c r="C48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="34">
+      <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
+      <c r="C49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17">
+      <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
+      <c r="C50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17">
+      <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
+      <c r="C51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17">
+      <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
+      <c r="C52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17">
+      <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
+      <c r="C53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="17">
+      <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
+      <c r="C54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17">
+      <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
+      <c r="C55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17">
+      <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
+      <c r="C56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="17">
+      <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
+      <c r="C57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17">
+      <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
+      <c r="C58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17">
+      <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
+      <c r="C59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="17">
+      <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
+      <c r="C60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17">
+      <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
+      <c r="C61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="34">
+      <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
+      <c r="C62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="17">
+      <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
+      <c r="C63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17">
+      <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="C64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="34">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>1</v>
       </c>
     </row>
